--- a/Dataset/Folds/Fold_1/Excel/6.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11218" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12154" uniqueCount="1467">
   <si>
     <t>Doi</t>
   </si>
@@ -5113,6 +5113,412 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                          Vera%Regitz-Zagrosek%NULL%1,                          Hannelore K.%Neuhauser%NULL%1,                          Rosemary%Morgan%NULL%1,                          Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                           Jordi%Rello%NULL%1,                           Sofia%Tejada%NULL%1,                           Alejandro%Martín%NULL%1,                           Goiatz%Balziskueta%NULL%1,                           Cristina%Vinuesa%NULL%1,                           Borja%Fernández-Miret%NULL%1,                           Ana%Villagra%NULL%1,                           Ana%Vallejo%NULL%1,                           Ana%San Sebastián%NULL%1,                           Sara%Cabañes%NULL%1,                           Sebastián%Iribarren%NULL%1,                           Fernando%Fonseca%NULL%1,                           Javier%Maynar%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                           Bijan J.%Ghassemieh%NULL%2,                           Michelle%Nichols%NULL%2,                           Richard%Kim%NULL%2,                           Keith R.%Jerome%NULL%2,                           Arun K.%Nalla%NULL%2,                           Alexander L.%Greninger%NULL%2,                           Sudhakar%Pipavath%NULL%2,                           Mark M.%Wurfel%NULL%2,                           Laura%Evans%NULL%2,                           Patricia A.%Kritek%NULL%2,                           T. Eoin%West%NULL%2,                           Andrew%Luks%NULL%2,                           Anthony%Gerbino%NULL%2,                           Chris R.%Dale%NULL%2,                           Jason D.%Goldman%NULL%2,                           Shane%O’Mahony%NULL%2,                           Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                           Wenlin%Cheng%NULL%2,                           Lei%Yu%NULL%2,                           Ya-Kun%Liu%NULL%2,                           Xiaoyong%Hu%NULL%2,                           Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                           Tangkai%Qi%NULL%2,                           Li%Liu%NULL%2,                           Yun%Ling%NULL%3,                           Zhiping%Qian%NULL%2,                           Tao%Li%NULL%3,                           Feng%Li%NULL%2,                           Qingnian%Xu%NULL%2,                           Yuyi%Zhang%NULL%2,                           Shuibao%Xu%NULL%2,                           Zhigang%Song%NULL%2,                           Yigang%Zeng%NULL%2,                           Yinzhong%Shen%NULL%2,                           Yuxin%Shi%NULL%4,                           Tongyu%Zhu%NULL%2,                           Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                           Min%Zhou%NULL%6,                           Xuan%Dong%NULL%3,                           Jieming%Qu%NULL%5,                           Fengyun%Gong%NULL%3,                           Yang%Han%NULL%3,                           Yang%Qiu%NULL%3,                           Jingli%Wang%NULL%3,                           Ying%Liu%NULL%6,                           Yuan%Wei%NULL%0,                           Jia'an%Xia%NULL%0,                           Ting%Yu%NULL%0,                           Xinxin%Zhang%NULL%5,                           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                           Zhe%Dai%NULL%1,                           Pingzheng%Mo%NULL%1,                           Xinyu%Li%NULL%1,                           Zhiyong%Ma%NULL%1,                           Shihui%Song%NULL%1,                           Xiaoping%Chen%NULL%1,                           Mingqi%Luo%NULL%1,                           Ke%Liang%NULL%1,                           Shicheng%Gao%NULL%1,                           Yongxi%Zhang%NULL%1,                           Liping%Deng%dengdeng78@126.com%1,                           Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                           Di%Wu%NULL%0,                           Huilong%Chen%NULL%0,                           Weiming%Yan%NULL%0,                           Danlei%Yang%NULL%0,                           Guang%Chen%NULL%0,                           Ke%Ma%NULL%0,                           Dong%Xu%NULL%0,                           Haijing%Yu%NULL%0,                           Hongwu%Wang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%0,                           Jia%Chen%NULL%0,                           Chen%Ding%NULL%0,                           Xiaoping%Zhang%NULL%0,                           Jiaquan%Huang%NULL%0,                           Meifang%Han%NULL%0,                           Shusheng%Li%NULL%0,                           Xiaoping%Luo%NULL%0,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                           Nan%Yang%NULL%0,                           Yanqiu%Wei%NULL%0,                           Huihui%Yue%NULL%0,                           Fengqin%Zhang%NULL%0,                           Jianping%Zhao%NULL%0,                           Li%He%NULL%0,                           Gaohong%Sheng%NULL%0,                           Peng%Chen%NULL%0,                           Gang%Li%NULL%0,                           Sisi%Wu%NULL%0,                           Bo%Zhang%NULL%0,                           Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                           Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                           Xiaoping%Miao%miaoxp@hust.edu.cn%0,                           Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                           Wenhua%Liu%liuwh_2013@126.com%0,                           Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                           Li-Rong%Liang%NULL%1,                           Cheng-Qing%Yang%NULL%1,                           Wen%Wang%NULL%3,                           Tan-Ze%Cao%NULL%1,                           Ming%Li%NULL%1,                           Guang-Yun%Guo%NULL%1,                           Juan%Du%NULL%1,                           Chun-Lan%Zheng%NULL%1,                           Qi%Zhu%NULL%1,                           Ming%Hu%NULL%1,                           Xu-Yan%Li%NULL%3,                           Peng%Peng%NULL%0,                           Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                           Li-Min%Liu%NULL%2,                           Wen%Yin%NULL%0,                           Wen%Wang%NULL%0,                           Lu-Lu%Guan%NULL%2,                           Ming-Li%Yuan%NULL%2,                           Yu-Lei%Li%NULL%2,                           Yi%Hu%NULL%0,                           Xu-Yan%Li%NULL%0,                           Bing%Sun%NULL%2,                           Peng%Peng%NULL%0,                           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                           Lei%Tu%NULL%1,                           Pingjun%Zhu%NULL%1,                           Mi%Mu%NULL%1,                           Runsheng%Wang%NULL%1,                           Pengcheng%Yang%NULL%1,                           Xi%Wang%NULL%1,                           Chao%Hu%NULL%1,                           Rongyu%Ping%NULL%1,                           Peng%Hu%NULL%1,                           Tianzhi%Li%NULL%1,                           Feng%Cao%NULL%1,                           Christopher%Chang%NULL%1,                           Qinyong%Hu%NULL%1,                           Yang%Jin%NULL%1,                           Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Wen-hua%Liang%NULL%0,                           Chun-quan%Ou%NULL%0,                           Jian-xing%He%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           David S.C.%Hui%NULL%0,                           Bin%Du%NULL%0,                           Lan-juan%Li%NULL%0,                           Guang%Zeng%NULL%0,                           Kwok-Yung%Yuen%NULL%0,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Ping-yan%Chen%NULL%0,                           Jie%Xiang%NULL%0,                           Shi-yue%Li%NULL%0,                           Jin-lin%Wang%NULL%0,                           Zi-jing%Liang%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%0,                           Xingwang%Li%NULL%0,                           Lili%Ren%NULL%0,                           Jianping%Zhao%NULL%0,                           Yi%Hu%NULL%0,                           Li%Zhang%NULL%0,                           Guohui%Fan%NULL%0,                           Jiuyang%Xu%NULL%0,                           Xiaoying%Gu%NULL%0,                           Zhenshun%Cheng%NULL%0,                           Ting%Yu%NULL%0,                           Jiaan%Xia%NULL%0,                           Yuan%Wei%NULL%0,                           Wenjuan%Wu%NULL%0,                           Xuelei%Xie%NULL%0,                           Wen%Yin%NULL%0,                           Hui%Li%NULL%0,                           Min%Liu%NULL%0,                           Yan%Xiao%NULL%0,                           Hong%Gao%NULL%0,                           Li%Guo%NULL%0,                           Jungang%Xie%NULL%0,                           Guangfa%Wang%NULL%0,                           Rongmeng%Jiang%NULL%0,                           Zhancheng%Gao%NULL%0,                           Qi%Jin%NULL%0,                           Jianwei%Wang%wangjw28@163.com%0,                           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                           Shuyun%Xu%NULL%1,                           Muqing%Yu%NULL%1,                           Ke%Wang%NULL%2,                           Yu%Tao%NULL%1,                           Ying%Zhou%NULL%1,                           Jing%Shi%NULL%1,                           Min%Zhou%NULL%0,                           Bo%Wu%NULL%1,                           Zhenyu%Yang%NULL%1,                           Cong%Zhang%NULL%2,                           Junqing%Yue%NULL%1,                           Zhiguo%Zhang%NULL%1,                           Harald%Renz%NULL%1,                           Xiansheng%Liu%NULL%1,                           Jungang%Xie%NULL%0,                           Min%Xie%NULL%1,                           Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                           Yuan-Yuan%Fang%NULL%0,                           Yan%Deng%NULL%0,                           Wei%Liu%NULL%0,                           Mei-Fang%Wang%NULL%0,                           Jing-Ping%Ma%NULL%0,                           Wei%Xiao%NULL%0,                           Ying-Nan%Wang%NULL%0,                           Min-Hua%Zhong%NULL%0,                           Cheng-Hong%Li%NULL%0,                           Guang-Cai%Li%NULL%0,                           Hui-Guo%Liu%NULL%0,                           Xiu-Yuan%Hao%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                           Mikael%Chetboun%NULL%2,                           Julien%Poissy%NULL%3,                           Violeta%Raverdy%NULL%2,                           Jerome%Noulette%NULL%3,                           Alain%Duhamel%NULL%2,                           Julien%Labreuche%NULL%2,                           Daniel%Mathieu%NULL%5,                           Francois%Pattou%francois.pattou@univ-lille.fr%2,                           Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                           Robert%Caizzo%NULL%3,                           Morgan%Caplan%NULL%2,                           Nicolas%Cousin%NULL%2,                           Thibault%Duburcq%NULL%2,                           Arthur%Durand%NULL%2,                           Ahmed%El kalioubie%NULL%2,                           Raphael%Favory%NULL%2,                           Bruno%Garcia%NULL%2,                           Patrick%Girardie%NULL%2,                           Julien%Goutay%NULL%2,                           Marion%Houard%NULL%2,                           Emmanuelle%Jaillette%NULL%2,                           Nicolas%Kostuj%NULL%2,                           Geoffrey%Ledoux%NULL%2,                           Daniel%Mathieu%NULL%0,                           Anne Sophie%Moreau%NULL%2,                           Christopher%Niles%NULL%2,                           Saad%Nseir%NULL%3,                           Thierry%Onimus%NULL%2,                           Erika%Parmentier%NULL%2,                           Sebastien%Préau%NULL%2,                           Laurent%Robriquet%NULL%2,                           Anahita%Rouze%NULL%2,                           Sophie%Six%NULL%2,                           Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                           Yi%Xiang%NULL%1,                           Wei%Fang%NULL%1,                           Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                           Boqun%Li%279685211@qq.com%1,                           Yanjun%Hu%huyanjun@163.com%1,                           Chunhui%Lang%NULL%1,                           Daoqiu%Huang%NULL%1,                           Qiuyan%Sun%NULL%1,                           Yan%Xiong%NULL%2,                           Xia%Huang%NULL%1,                           Jinglong%Lv%NULL%1,                           Yaling%Luo%NULL%1,                           Li%Shen%NULL%1,                           Haoran%Yang%NULL%1,                           Gu%Huang%NULL%1,                           Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                           Min%Pan%NULL%1,                           Xiumei%Zhang%NULL%1,                           Mingfeng%Han%fyhmf@163.com%2,                           Xiaoyun%Fan%13956988552@126.com%1,                           Fengde%Zhao%NULL%1,                           Manli%Miao%NULL%1,                           Jing%Xu%NULL%1,                           Minglong%Guan%NULL%1,                           Xia%Deng%NULL%1,                           Xu%Chen%NULL%1,                           Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                           J.%Fang%NULL%1,                           Y.%Zhu%NULL%1,                           L.%Chen%NULL%1,                           F.%Ding%NULL%1,                           R.%Zhou%NULL%1,                           L.%Ge%NULL%1,                           F.%Wang%NULL%1,                           Q.%Chen%NULL%1,                           Y.%Zhang%NULL%1,                           Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                           Jun%Liu%NULL%2,                           Xinguo%Zhao%NULL%1,                           Chengyuan%Liu%NULL%1,                           Wei%Wang%NULL%2,                           Dawei%Wang%NULL%1,                           Wei%Xu%NULL%1,                           Chunyu%Zhang%NULL%1,                           Jiong%Yu%NULL%1,                           Bin%Jiang%NULL%1,                           Hongcui%Cao%hccao@zju.edu.cn%1,                           Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                           Jianming%Zhao%NULL%1,                           Ningfang%Lian%1533532863@qq.com%1,                           Su%Lin%NULL%1,                           Qunfang%Xie%NULL%1,                           Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                           Chengcheng%Yu%NULL%2,                           Jing%Qu%NULL%1,                           Lieguang%Zhang%NULL%2,                           Songfeng%Jiang%NULL%1,                           Deyang%Huang%NULL%1,                           Bihua%Chen%NULL%1,                           Zhiping%Zhang%NULL%1,                           Wanhua%Guan%NULL%1,                           Zhoukun%Ling%NULL%1,                           Rui%Jiang%NULL%1,                           Tianli%Hu%NULL%1,                           Yan%Ding%NULL%1,                           Lin%Lin%NULL%1,                           Qingxin%Gan%NULL%1,                           Liangping%Luo%tluolp@jnu.edu.cn%2,                           Xiaoping%Tang%xtang@21cn.com%1,                           Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                           Qiqi%Cao%NULL%1,                           Le%Qin%NULL%1,                           Xiaoyang%Wang%NULL%1,                           Zenghui%Cheng%NULL%1,                           Ashan%Pan%NULL%1,                           Jianyi%Dai%NULL%1,                           Qingfeng%Sun%NULL%1,                           Fengquan%Zhao%NULL%1,                           Jieming%Qu%NULL%0,                           Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                           Areeba%Ali%NULL%1,                           Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                           Jaime A.%Cardona-Ospina%NULL%1,                           Estefanía%Gutiérrez-Ocampo%NULL%1,                           Rhuvi%Villamizar-Peña%NULL%1,                           Yeimer%Holguin-Rivera%NULL%1,                           Juan Pablo%Escalera-Antezana%NULL%1,                           Lucia Elena%Alvarado-Arnez%NULL%1,                           D. Katterine%Bonilla-Aldana%NULL%1,                           Carlos%Franco-Paredes%NULL%1,                           Andrés F.%Henao-Martinez%NULL%1,                           Alberto%Paniz-Mondolfi%NULL%1,                           Guillermo J.%Lagos-Grisales%NULL%1,                           Eduardo%Ramírez-Vallejo%NULL%1,                           Jose A.%Suárez%NULL%1,                           Lysien I.%Zambrano%NULL%1,                           Wilmer E.%Villamil-Gómez%NULL%1,                           Graciela J.%Balbin-Ramon%NULL%1,                           Ali A.%Rabaan%NULL%1,                           Harapan%Harapan%NULL%1,                           Kuldeep%Dhama%NULL%1,                           Hiroshi%Nishiura%NULL%2,                           Hiromitsu%Kataoka%NULL%1,                           Tauseef%Ahmad%NULL%1,                           Ranjit%Sah%NULL%2,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                           Ben%Van Calster%NULL%1,                           Gary S%Collins%NULL%1,                           Richard D%Riley%NULL%1,                           Georg%Heinze%NULL%1,                           Ewoud%Schuit%NULL%1,                           Marc M J%Bonten%NULL%1,                           Johanna A A%Damen%NULL%1,                           Thomas P A%Debray%NULL%1,                           Maarten%De Vos%NULL%1,                           Paula%Dhiman%NULL%1,                           Maria C%Haller%NULL%1,                           Michael O%Harhay%NULL%1,                           Liesbet%Henckaerts%NULL%1,                           Nina%Kreuzberger%NULL%1,                           Anna%Lohmann%NULL%1,                           Kim%Luijken%NULL%1,                           Jie%Ma%NULL%1,                           Constanza L%Andaur Navarro%NULL%1,                           Johannes B%Reitsma%NULL%1,                           Jamie C%Sergeant%NULL%1,                           Chunhu%Shi%NULL%1,                           Nicole%Skoetz%NULL%1,                           Luc J M%Smits%NULL%1,                           Kym I E%Snell%NULL%1,                           Matthew%Sperrin%NULL%1,                           René%Spijker%NULL%1,                           Ewout W%Steyerberg%NULL%1,                           Toshihiko%Takada%NULL%1,                           Sander M J%van Kuijk%NULL%1,                           Florien S%van Royen%NULL%1,                           Christine%Wallisch%NULL%1,                           Lotty%Hooft%NULL%1,                           Karel G M%Moons%NULL%1,                           Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                           Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                           Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                           Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                           Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                           Jung Wan%Park%NULL%3,                           Moran%Ki%NULL%1,                           Mi-Yeon%Yeon%NULL%3,                           Jin%Kim%NULL%1,                           Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                           Soyoung%Jung%syjung@kiom.re.kr%1,                           Aeran%Kim%arkim@kiom.re.kr%1,                           Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                           D. S. Y.%Chong%NULL%1,                           W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                           Vera%Regitz-Zagrosek%NULL%1,                           Hannelore K.%Neuhauser%NULL%1,                           Rosemary%Morgan%NULL%1,                           Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                            Jordi%Rello%NULL%1,                            Sofia%Tejada%NULL%1,                            Alejandro%Martín%NULL%1,                            Goiatz%Balziskueta%NULL%1,                            Cristina%Vinuesa%NULL%1,                            Borja%Fernández-Miret%NULL%1,                            Ana%Villagra%NULL%1,                            Ana%Vallejo%NULL%1,                            Ana%San Sebastián%NULL%1,                            Sara%Cabañes%NULL%1,                            Sebastián%Iribarren%NULL%1,                            Fernando%Fonseca%NULL%1,                            Javier%Maynar%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                            Bijan J.%Ghassemieh%NULL%2,                            Michelle%Nichols%NULL%2,                            Richard%Kim%NULL%2,                            Keith R.%Jerome%NULL%2,                            Arun K.%Nalla%NULL%2,                            Alexander L.%Greninger%NULL%2,                            Sudhakar%Pipavath%NULL%2,                            Mark M.%Wurfel%NULL%2,                            Laura%Evans%NULL%2,                            Patricia A.%Kritek%NULL%2,                            T. Eoin%West%NULL%2,                            Andrew%Luks%NULL%2,                            Anthony%Gerbino%NULL%2,                            Chris R.%Dale%NULL%2,                            Jason D.%Goldman%NULL%2,                            Shane%O’Mahony%NULL%2,                            Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                            Wenlin%Cheng%NULL%2,                            Lei%Yu%NULL%2,                            Ya-Kun%Liu%NULL%2,                            Xiaoyong%Hu%NULL%2,                            Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                            Tangkai%Qi%NULL%2,                            Li%Liu%NULL%2,                            Yun%Ling%NULL%3,                            Zhiping%Qian%NULL%2,                            Tao%Li%NULL%2,                            Feng%Li%NULL%2,                            Qingnian%Xu%NULL%2,                            Yuyi%Zhang%NULL%2,                            Shuibao%Xu%NULL%2,                            Zhigang%Song%NULL%2,                            Yigang%Zeng%NULL%2,                            Yinzhong%Shen%NULL%2,                            Yuxin%Shi%NULL%4,                            Tongyu%Zhu%NULL%2,                            Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                            Min%Zhou%NULL%6,                            Xuan%Dong%NULL%3,                            Jieming%Qu%NULL%5,                            Fengyun%Gong%NULL%3,                            Yang%Han%NULL%3,                            Yang%Qiu%NULL%3,                            Jingli%Wang%NULL%3,                            Ying%Liu%NULL%6,                            Yuan%Wei%NULL%0,                            Jia'an%Xia%NULL%0,                            Ting%Yu%NULL%0,                            Xinxin%Zhang%NULL%5,                            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                            Zhe%Dai%NULL%1,                            Pingzheng%Mo%NULL%1,                            Xinyu%Li%NULL%1,                            Zhiyong%Ma%NULL%1,                            Shihui%Song%NULL%1,                            Xiaoping%Chen%NULL%1,                            Mingqi%Luo%NULL%1,                            Ke%Liang%NULL%1,                            Shicheng%Gao%NULL%1,                            Yongxi%Zhang%NULL%1,                            Liping%Deng%dengdeng78@126.com%1,                            Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                            Di%Wu%NULL%0,                            Huilong%Chen%NULL%0,                            Weiming%Yan%NULL%0,                            Danlei%Yang%NULL%0,                            Guang%Chen%NULL%0,                            Ke%Ma%NULL%0,                            Dong%Xu%NULL%0,                            Haijing%Yu%NULL%0,                            Hongwu%Wang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%0,                            Jia%Chen%NULL%0,                            Chen%Ding%NULL%0,                            Xiaoping%Zhang%NULL%0,                            Jiaquan%Huang%NULL%0,                            Meifang%Han%NULL%0,                            Shusheng%Li%NULL%0,                            Xiaoping%Luo%NULL%0,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                            Nan%Yang%NULL%0,                            Yanqiu%Wei%NULL%0,                            Huihui%Yue%NULL%0,                            Fengqin%Zhang%NULL%0,                            Jianping%Zhao%NULL%0,                            Li%He%NULL%0,                            Gaohong%Sheng%NULL%0,                            Peng%Chen%NULL%0,                            Gang%Li%NULL%0,                            Sisi%Wu%NULL%0,                            Bo%Zhang%NULL%0,                            Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                            Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                            Xiaoping%Miao%miaoxp@hust.edu.cn%0,                            Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                            Wenhua%Liu%liuwh_2013@126.com%0,                            Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                            Li-Rong%Liang%NULL%1,                            Cheng-Qing%Yang%NULL%1,                            Wen%Wang%NULL%3,                            Tan-Ze%Cao%NULL%1,                            Ming%Li%NULL%1,                            Guang-Yun%Guo%NULL%1,                            Juan%Du%NULL%1,                            Chun-Lan%Zheng%NULL%1,                            Qi%Zhu%NULL%1,                            Ming%Hu%NULL%1,                            Xu-Yan%Li%NULL%3,                            Peng%Peng%NULL%0,                            Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                            Li-Min%Liu%NULL%2,                            Wen%Yin%NULL%0,                            Wen%Wang%NULL%0,                            Lu-Lu%Guan%NULL%2,                            Ming-Li%Yuan%NULL%2,                            Yu-Lei%Li%NULL%2,                            Yi%Hu%NULL%0,                            Xu-Yan%Li%NULL%0,                            Bing%Sun%NULL%2,                            Peng%Peng%NULL%0,                            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                            Lei%Tu%NULL%1,                            Pingjun%Zhu%NULL%1,                            Mi%Mu%NULL%1,                            Runsheng%Wang%NULL%1,                            Pengcheng%Yang%NULL%1,                            Xi%Wang%NULL%1,                            Chao%Hu%NULL%1,                            Rongyu%Ping%NULL%1,                            Peng%Hu%NULL%1,                            Tianzhi%Li%NULL%1,                            Feng%Cao%NULL%1,                            Christopher%Chang%NULL%1,                            Qinyong%Hu%NULL%1,                            Yang%Jin%NULL%1,                            Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Wen-hua%Liang%NULL%0,                            Chun-quan%Ou%NULL%0,                            Jian-xing%He%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            David S.C.%Hui%NULL%0,                            Bin%Du%NULL%0,                            Lan-juan%Li%NULL%0,                            Guang%Zeng%NULL%0,                            Kwok-Yung%Yuen%NULL%0,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Ping-yan%Chen%NULL%0,                            Jie%Xiang%NULL%0,                            Shi-yue%Li%NULL%0,                            Jin-lin%Wang%NULL%0,                            Zi-jing%Liang%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%0,                            Xingwang%Li%NULL%0,                            Lili%Ren%NULL%0,                            Jianping%Zhao%NULL%0,                            Yi%Hu%NULL%0,                            Li%Zhang%NULL%0,                            Guohui%Fan%NULL%0,                            Jiuyang%Xu%NULL%0,                            Xiaoying%Gu%NULL%0,                            Zhenshun%Cheng%NULL%0,                            Ting%Yu%NULL%0,                            Jiaan%Xia%NULL%0,                            Yuan%Wei%NULL%0,                            Wenjuan%Wu%NULL%0,                            Xuelei%Xie%NULL%0,                            Wen%Yin%NULL%0,                            Hui%Li%NULL%0,                            Min%Liu%NULL%0,                            Yan%Xiao%NULL%0,                            Hong%Gao%NULL%0,                            Li%Guo%NULL%0,                            Jungang%Xie%NULL%0,                            Guangfa%Wang%NULL%0,                            Rongmeng%Jiang%NULL%0,                            Zhancheng%Gao%NULL%0,                            Qi%Jin%NULL%0,                            Jianwei%Wang%wangjw28@163.com%0,                            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                            Shuyun%Xu%NULL%1,                            Muqing%Yu%NULL%1,                            Ke%Wang%NULL%2,                            Yu%Tao%NULL%1,                            Ying%Zhou%NULL%1,                            Jing%Shi%NULL%1,                            Min%Zhou%NULL%0,                            Bo%Wu%NULL%1,                            Zhenyu%Yang%NULL%1,                            Cong%Zhang%NULL%2,                            Junqing%Yue%NULL%1,                            Zhiguo%Zhang%NULL%1,                            Harald%Renz%NULL%1,                            Xiansheng%Liu%NULL%1,                            Jungang%Xie%NULL%0,                            Min%Xie%NULL%1,                            Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                            Yuan-Yuan%Fang%NULL%0,                            Yan%Deng%NULL%0,                            Wei%Liu%NULL%0,                            Mei-Fang%Wang%NULL%0,                            Jing-Ping%Ma%NULL%0,                            Wei%Xiao%NULL%0,                            Ying-Nan%Wang%NULL%0,                            Min-Hua%Zhong%NULL%0,                            Cheng-Hong%Li%NULL%0,                            Guang-Cai%Li%NULL%0,                            Hui-Guo%Liu%NULL%0,                            Xiu-Yuan%Hao%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                            Mikael%Chetboun%NULL%2,                            Julien%Poissy%NULL%3,                            Violeta%Raverdy%NULL%2,                            Jerome%Noulette%NULL%3,                            Alain%Duhamel%NULL%2,                            Julien%Labreuche%NULL%2,                            Daniel%Mathieu%NULL%5,                            Francois%Pattou%francois.pattou@univ-lille.fr%2,                            Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                            Robert%Caizzo%NULL%3,                            Morgan%Caplan%NULL%2,                            Nicolas%Cousin%NULL%2,                            Thibault%Duburcq%NULL%2,                            Arthur%Durand%NULL%2,                            Ahmed%El kalioubie%NULL%2,                            Raphael%Favory%NULL%2,                            Bruno%Garcia%NULL%2,                            Patrick%Girardie%NULL%2,                            Julien%Goutay%NULL%2,                            Marion%Houard%NULL%2,                            Emmanuelle%Jaillette%NULL%2,                            Nicolas%Kostuj%NULL%2,                            Geoffrey%Ledoux%NULL%2,                            Daniel%Mathieu%NULL%0,                            Anne Sophie%Moreau%NULL%2,                            Christopher%Niles%NULL%2,                            Saad%Nseir%NULL%3,                            Thierry%Onimus%NULL%2,                            Erika%Parmentier%NULL%2,                            Sebastien%Préau%NULL%2,                            Laurent%Robriquet%NULL%2,                            Anahita%Rouze%NULL%2,                            Sophie%Six%NULL%2,                            Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                            Yi%Xiang%NULL%1,                            Wei%Fang%NULL%1,                            Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                            Boqun%Li%279685211@qq.com%1,                            Yanjun%Hu%huyanjun@163.com%1,                            Chunhui%Lang%NULL%1,                            Daoqiu%Huang%NULL%1,                            Qiuyan%Sun%NULL%1,                            Yan%Xiong%NULL%2,                            Xia%Huang%NULL%1,                            Jinglong%Lv%NULL%1,                            Yaling%Luo%NULL%1,                            Li%Shen%NULL%1,                            Haoran%Yang%NULL%1,                            Gu%Huang%NULL%1,                            Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                            Min%Pan%NULL%1,                            Xiumei%Zhang%NULL%1,                            Mingfeng%Han%fyhmf@163.com%2,                            Xiaoyun%Fan%13956988552@126.com%1,                            Fengde%Zhao%NULL%1,                            Manli%Miao%NULL%1,                            Jing%Xu%NULL%1,                            Minglong%Guan%NULL%1,                            Xia%Deng%NULL%1,                            Xu%Chen%NULL%1,                            Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                            J.%Fang%NULL%1,                            Y.%Zhu%NULL%1,                            L.%Chen%NULL%1,                            F.%Ding%NULL%1,                            R.%Zhou%NULL%1,                            L.%Ge%NULL%1,                            F.%Wang%NULL%1,                            Q.%Chen%NULL%1,                            Y.%Zhang%NULL%1,                            Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                            Jun%Liu%NULL%2,                            Xinguo%Zhao%NULL%1,                            Chengyuan%Liu%NULL%1,                            Wei%Wang%NULL%2,                            Dawei%Wang%NULL%1,                            Wei%Xu%NULL%1,                            Chunyu%Zhang%NULL%1,                            Jiong%Yu%NULL%1,                            Bin%Jiang%NULL%1,                            Hongcui%Cao%hccao@zju.edu.cn%1,                            Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                            Jianming%Zhao%NULL%1,                            Ningfang%Lian%1533532863@qq.com%1,                            Su%Lin%NULL%1,                            Qunfang%Xie%NULL%1,                            Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                            Chengcheng%Yu%NULL%2,                            Jing%Qu%NULL%1,                            Lieguang%Zhang%NULL%2,                            Songfeng%Jiang%NULL%1,                            Deyang%Huang%NULL%1,                            Bihua%Chen%NULL%1,                            Zhiping%Zhang%NULL%1,                            Wanhua%Guan%NULL%1,                            Zhoukun%Ling%NULL%1,                            Rui%Jiang%NULL%1,                            Tianli%Hu%NULL%1,                            Yan%Ding%NULL%1,                            Lin%Lin%NULL%1,                            Qingxin%Gan%NULL%1,                            Liangping%Luo%tluolp@jnu.edu.cn%2,                            Xiaoping%Tang%xtang@21cn.com%1,                            Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                            Qiqi%Cao%NULL%1,                            Le%Qin%NULL%1,                            Xiaoyang%Wang%NULL%1,                            Zenghui%Cheng%NULL%1,                            Ashan%Pan%NULL%1,                            Jianyi%Dai%NULL%1,                            Qingfeng%Sun%NULL%1,                            Fengquan%Zhao%NULL%1,                            Jieming%Qu%NULL%0,                            Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                            Areeba%Ali%NULL%1,                            Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                            Jaime A.%Cardona-Ospina%NULL%1,                            Estefanía%Gutiérrez-Ocampo%NULL%1,                            Rhuvi%Villamizar-Peña%NULL%1,                            Yeimer%Holguin-Rivera%NULL%1,                            Juan Pablo%Escalera-Antezana%NULL%1,                            Lucia Elena%Alvarado-Arnez%NULL%1,                            D. Katterine%Bonilla-Aldana%NULL%1,                            Carlos%Franco-Paredes%NULL%1,                            Andrés F.%Henao-Martinez%NULL%1,                            Alberto%Paniz-Mondolfi%NULL%1,                            Guillermo J.%Lagos-Grisales%NULL%1,                            Eduardo%Ramírez-Vallejo%NULL%1,                            Jose A.%Suárez%NULL%1,                            Lysien I.%Zambrano%NULL%1,                            Wilmer E.%Villamil-Gómez%NULL%1,                            Graciela J.%Balbin-Ramon%NULL%1,                            Ali A.%Rabaan%NULL%1,                            Harapan%Harapan%NULL%1,                            Kuldeep%Dhama%NULL%1,                            Hiroshi%Nishiura%NULL%2,                            Hiromitsu%Kataoka%NULL%1,                            Tauseef%Ahmad%NULL%1,                            Ranjit%Sah%NULL%2,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                            Ben%Van Calster%NULL%1,                            Gary S%Collins%NULL%1,                            Richard D%Riley%NULL%1,                            Georg%Heinze%NULL%1,                            Ewoud%Schuit%NULL%1,                            Marc M J%Bonten%NULL%1,                            Johanna A A%Damen%NULL%1,                            Thomas P A%Debray%NULL%1,                            Maarten%De Vos%NULL%1,                            Paula%Dhiman%NULL%1,                            Maria C%Haller%NULL%1,                            Michael O%Harhay%NULL%1,                            Liesbet%Henckaerts%NULL%1,                            Nina%Kreuzberger%NULL%1,                            Anna%Lohmann%NULL%1,                            Kim%Luijken%NULL%1,                            Jie%Ma%NULL%1,                            Constanza L%Andaur Navarro%NULL%1,                            Johannes B%Reitsma%NULL%1,                            Jamie C%Sergeant%NULL%1,                            Chunhu%Shi%NULL%1,                            Nicole%Skoetz%NULL%1,                            Luc J M%Smits%NULL%1,                            Kym I E%Snell%NULL%1,                            Matthew%Sperrin%NULL%1,                            René%Spijker%NULL%1,                            Ewout W%Steyerberg%NULL%1,                            Toshihiko%Takada%NULL%1,                            Sander M J%van Kuijk%NULL%1,                            Florien S%van Royen%NULL%1,                            Christine%Wallisch%NULL%1,                            Lotty%Hooft%NULL%1,                            Karel G M%Moons%NULL%1,                            Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                            Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                            Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                            Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                            Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                            Jung Wan%Park%NULL%3,                            Moran%Ki%NULL%1,                            Mi-Yeon%Yeon%NULL%3,                            Jin%Kim%NULL%1,                            Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                            Soyoung%Jung%syjung@kiom.re.kr%1,                            Aeran%Kim%arkim@kiom.re.kr%1,                            Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                            D. S. Y.%Chong%NULL%1,                            W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                            Vera%Regitz-Zagrosek%NULL%1,                            Hannelore K.%Neuhauser%NULL%1,                            Rosemary%Morgan%NULL%1,                            Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%0, Jordi%Rello%NULL%3, Sofia%Tejada%NULL%2, Alejandro%Martín%NULL%2, Goiatz%Balziskueta%NULL%2, Cristina%Vinuesa%NULL%2, Borja%Fernández-Miret%NULL%2, Ana%Villagra%NULL%2, Ana%Vallejo%NULL%2, Ana%San Sebastián%NULL%2, Sara%Cabañes%NULL%2, Sebastián%Iribarren%NULL%2, Fernando%Fonseca%NULL%2, Javier%Maynar%NULL%2, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Société française d'anesthésie et de réanimation (Sfar). Published by Elsevier Masson SAS.</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0, Bijan J.%Ghassemieh%NULL%8, Michelle%Nichols%NULL%8, Richard%Kim%NULL%8, Keith R.%Jerome%NULL%8, Arun K.%Nalla%NULL%8, Alexander L.%Greninger%NULL%8, Sudhakar%Pipavath%NULL%8, Mark M.%Wurfel%NULL%8, Laura%Evans%NULL%8, Patricia A.%Kritek%NULL%8, T. Eoin%West%NULL%8, Andrew%Luks%NULL%8, Anthony%Gerbino%NULL%8, Chris R.%Dale%NULL%8, Jason D.%Goldman%NULL%8, Shane%O’Mahony%NULL%8, Carmen%Mikacenic%NULL%8]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0, Wenlin%Cheng%NULL%0, Lei%Yu%NULL%0, Ya-Kun%Liu%NULL%10, Xiaoyong%Hu%NULL%10, Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Most of the COVID-19 cases are mild.
+</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0, Tangkai%Qi%NULL%0, Li%Liu%NULL%0, Yun%Ling%NULL%0, Zhiping%Qian%NULL%0, Tao%Li%NULL%0, Feng%Li%NULL%0, Qingnian%Xu%NULL%0, Yuyi%Zhang%NULL%0, Shuibao%Xu%NULL%0, Zhigang%Song%NULL%0, Yigang%Zeng%NULL%0, Yinzhong%Shen%NULL%0, Yuxin%Shi%NULL%0, Tongyu%Zhu%NULL%0, Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0, Min%Zhou%NULL%0, Xuan%Dong%NULL%0, Jieming%Qu%NULL%0, Fengyun%Gong%NULL%0, Yang%Han%NULL%0, Yang%Qiu%NULL%0, Jingli%Wang%NULL%0, Ying%Liu%NULL%0, Yuan%Wei%NULL%0, Jia'an%Xia%NULL%0, Ting%Yu%NULL%0, Xinxin%Zhang%NULL%0, Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0, Zhe%Dai%NULL%2, Pingzheng%Mo%NULL%0, Xinyu%Li%NULL%2, Zhiyong%Ma%NULL%0, Shihui%Song%NULL%0, Xiaoping%Chen%NULL%0, Mingqi%Luo%NULL%0, Ke%Liang%NULL%0, Shicheng%Gao%NULL%0, Yongxi%Zhang%NULL%0, Liping%Deng%dengdeng78@126.com%0, Yong%Xiong%NULL%0, Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In December 2019, an outbreak of the severe acute respiratory syndrome coronavirus 2 (SARS‐Cov‐2) infection occurred in Wuhan, and rapidly spread to worldwide, which has attracted many people's concerns about the patients.
+ However, studies on the infection status of medical personnel is still lacking.
+ A total of 54 cases of SARS‐Cov‐2 infected medical staff from Tongji Hospital between 7 January and 11 February 2020 were analyzed in this retrospective study.
+ Clinical and epidemiological characteristics were compared between different groups by statistical method.
+ From 7 January to 11 February 2020, 54 medical staff of Tongji Hospital were hospitalized due to coronavirus disease 2019 (COVID‐19).
+ Most of them were from other clinical departments (72.2%) rather than emergency department (3.7%) or medical technology departments (18.5%).
+ Among the 54 patients with COVID‐19, the distribution of age had a significant difference between non‐severe type and severe/critical cases (median age: 47 years vs 38 years; P = .
+0015).
+ However, there was no statistical difference in terms of gender distribution and the first symptoms between theses two groups.
+ Furthermore, we observed that the lesion regions in SARS‐Cov‐2 infected lungs with severe‐/critical‐type of medical staff were more likely to exhibit lesions in the right upper lobe (31.7% vs 0%; P = .
+028) and right lung (61% vs 18.2%; P = .
+012).
+ Based on our findings with medical staff infection data, we suggest training for all hospital staff to prevent infection and preparation of sufficient protection and disinfection materials.
+</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0, Nan%Yang%NULL%0, Nan%Yang%NULL%0, Yanqiu%Wei%NULL%0, Huihui%Yue%NULL%0, Fengqin%Zhang%NULL%0, Jianping%Zhao%NULL%0, Li%He%NULL%0, Gaohong%Sheng%NULL%0, Gaohong%Sheng%NULL%0, Peng%Chen%NULL%0, Gang%Li%NULL%0, Sisi%Wu%NULL%0, Bo%Zhang%NULL%0, Shu%Zhang%szhang@tjh.tjmu.edu.cn%0, Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0, Xiaoping%Miao%miaoxp@hust.edu.cn%0, Juan%Li%lijuan@tjh.tjmu.edu.cn%0, Wenhua%Liu%liuwh_2013@126.com%0, Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0, Li-Rong%Liang%NULL%5, Cheng-Qing%Yang%NULL%5, Wen%Wang%NULL%9, Tan-Ze%Cao%NULL%5, Ming%Li%NULL%7, Guang-Yun%Guo%NULL%5, Juan%Du%NULL%5, Chun-Lan%Zheng%NULL%5, Qi%Zhu%NULL%5, Ming%Hu%NULL%12, Xu-Yan%Li%NULL%9, Peng%Peng%NULL%0, Huan-Zhong%Shi%NULL%9]</t>
+  </si>
+  <si>
+    <t>European Respiratory Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: The current outbreak of coronavirus disease (COVID-19) pneumonia caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) in Wuhan, China, spreads across national and international borders.
+ The overall death rate of COVID-19 pneumonia in the Chinese population was 4%.
+</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0, Li-Min%Liu%NULL%4, Wen%Yin%NULL%0, Wen%Wang%NULL%0, Lu-Lu%Guan%NULL%4, Ming-Li%Yuan%NULL%0, Yu-Lei%Li%NULL%4, Yi%Hu%NULL%0, Xu-Yan%Li%NULL%0, Bing%Sun%NULL%4, Peng%Peng%NULL%0, Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Thoracic Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: The global death toll from coronavirus disease (COVID-19) virus as of May 12, 2020, exceeds 286,000. The risk factors for death were attributed to advanced age and comorbidities but have not been accurately defined.
+</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0, Lei%Tu%NULL%7, Lei%Tu%NULL%0, Pingjun%Zhu%NULL%6, Pingjun%Zhu%NULL%0, Mi%Mu%NULL%7, Mi%Mu%NULL%0, Runsheng%Wang%NULL%4, Pengcheng%Yang%NULL%4, Xi%Wang%NULL%3, Chao%Hu%NULL%4, Rongyu%Ping%NULL%4, Peng%Hu%NULL%4, Tianzhi%Li%NULL%4, Feng%Cao%NULL%3, Christopher%Chang%NULL%3, Qinyong%Hu%NULL%4, Yang%Jin%NULL%4, Guogang%Xu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%0, Jian-xing%He%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, David S.C.%Hui%NULL%0, Bin%Du%NULL%0, Lan-juan%Li%NULL%0, Guang%Zeng%NULL%0, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%0, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%0, Jin-lin%Wang%NULL%0, Zi-jing%Liang%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Since the identification of the first case of coronavirus disease 2019 (COVID-19), the global number of confirmed cases as of March 15, 2020, is 156,400, with total death in 5,833 (3.7%) worldwide.
+ Here, we summarize the morality data from February 19 when the first mortality occurred to 0 am, March 10, 2020, in Korea with comparison to other countries.
+ The overall case fatality rate of COVID-19 in Korea was 0.7% as of 0 am, March 10, 2020.</t>
+  </si>
+  <si>
+    <t>The Korean Academy of Medical Sciences</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0, Shuyun%Xu%NULL%4, Muqing%Yu%NULL%5, Ke%Wang%NULL%0, Yu%Tao%NULL%11, Ying%Zhou%NULL%6, Jing%Shi%NULL%0, Min%Zhou%NULL%0, Bo%Wu%NULL%4, Zhenyu%Yang%NULL%4, Cong%Zhang%NULL%7, Junqing%Yue%NULL%4, Zhiguo%Zhang%NULL%6, Harald%Renz%NULL%4, Xiansheng%Liu%NULL%5, Jungang%Xie%NULL%0, Min%Xie%NULL%6, Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Academy of Allergy, Asthma &amp;amp; Immunology</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%0, Yan%Deng%NULL%0, Wei%Liu%NULL%0, Mei-Fang%Wang%NULL%0, Jing-Ping%Ma%NULL%0, Wei%Xiao%NULL%0, Ying-Nan%Wang%NULL%0, Min-Hua%Zhong%NULL%0, Cheng-Hong%Li%NULL%0, Guang-Cai%Li%NULL%0, Hui-Guo%Liu%NULL%0, Xiu-Yuan%Hao%NULL%0, Xiu-Yuan%Hao%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0, Mikael%Chetboun%NULL%3, Julien%Poissy%NULL%4, Violeta%Raverdy%NULL%3, Jerome%Noulette%NULL%6, Jerome%Noulette%NULL%0, Alain%Duhamel%NULL%4, Julien%Labreuche%NULL%5, Daniel%Mathieu%NULL%7, Francois%Pattou%francois.pattou@univ-lille.fr%3, Merce%Jourdain%mercedes.jourdain@univ-lille.fr%6, Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0, Robert%Caizzo%NULL%6, Robert%Caizzo%NULL%0, Morgan%Caplan%NULL%3, Nicolas%Cousin%NULL%0, Thibault%Duburcq%NULL%4, Arthur%Durand%NULL%4, Ahmed%El kalioubie%NULL%3, Raphael%Favory%NULL%3, Bruno%Garcia%NULL%3, Patrick%Girardie%NULL%3, Julien%Goutay%NULL%4, Marion%Houard%NULL%3, Emmanuelle%Jaillette%NULL%3, Nicolas%Kostuj%NULL%3, Geoffrey%Ledoux%NULL%3, Daniel%Mathieu%NULL%0, Anne Sophie%Moreau%NULL%3, Christopher%Niles%NULL%3, Saad%Nseir%NULL%4, Thierry%Onimus%NULL%3, Erika%Parmentier%NULL%3, Sebastien%Préau%NULL%3, Laurent%Robriquet%NULL%3, Anahita%Rouze%NULL%3, Sophie%Six%NULL%3, Hélène%Verkindt%NULL%3]</t>
+  </si>
+  <si>
+    <t>The outbreak of the novel coronavirus in China (SARS‐CoV‐2) that began in December 2019 presents a significant and urgent threat to global health.
+ This study was conducted to provide the international community with a deeper understanding of this new infectious disease.
+ Epidemiological, clinical features, laboratory findings, radiological characteristics, treatment, and clinical outcomes of 135 patients in northeast Chongqing were collected and analyzed in this study.
+ A total of 135 hospitalized patients with COVID‐19 were enrolled.
+ The median age was 47 years (interquartile range, 36‐55), and there was no significant gender difference (53.3% men).
+ The majority of patients had contact with people from the Wuhan area.
+ Forty‐three (31.9%) patients had underlying disease, primarily hypertension (13 [9.6%]), diabetes (12 [8.9%]), cardiovascular disease (7 [5.2%]), and malignancy (4 [3.0%]).
+ Common symptoms included fever (120 [88.9%]), cough (102 [76.5%]), and fatigue (44 [32.5%]).
+ Chest computed tomography scans showed bilateral patchy shadows or ground glass opacity in the lungs of all the patients.
+ All patients received antiviral therapy (135 [100%]) (Kaletra and interferon were both used), antibacterial therapy (59 [43.7%]), and corticosteroids (36 [26.7%]).
+ In addition, many patients received traditional Chinese medicine (TCM) (124 [91.8%]).
+ It is suggested that patients should receive Kaletra early and should be treated by a combination of Western and Chinese medicines.
+ Compared to the mild cases, the severe ones had lower lymphocyte counts and higher plasma levels of Pt, APTT, d‐dimer, lactate dehydrogenase, PCT, ALB, C‐reactive protein, and aspartate aminotransferase.
+ This study demonstrates the clinic features and therapies of 135 COVID‐19 patients.
+ Kaletra and TCM played an important role in the treatment of the viral pneumonia.
+ Further studies are required to explore the role of Kaletra and TCM in the treatment of COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0, Yi%Xiang%NULL%6, Wei%Fang%NULL%7, Yu%Zheng%yuzheng1@cdutcm.edu.cn%6, Boqun%Li%279685211@qq.com%12, Boqun%Li%279685211@qq.com%0, Yanjun%Hu%huyanjun@163.com%6, Chunhui%Lang%NULL%7, Daoqiu%Huang%NULL%6, Qiuyan%Sun%NULL%6, Yan%Xiong%NULL%0, Xia%Huang%NULL%6, Jinglong%Lv%NULL%7, Yaling%Luo%NULL%6, Li%Shen%NULL%6, Haoran%Yang%NULL%6, Gu%Huang%NULL%6, Ruishan%Yang%NULL%6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Do not ignore patients without certain exposure history.
+</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0, Min%Pan%NULL%4, Xiumei%Zhang%NULL%5, Mingfeng%Han%fyhmf@163.com%0, Xiaoyun%Fan%13956988552@126.com%4, Fengde%Zhao%NULL%4, Manli%Miao%NULL%4, Jing%Xu%NULL%8, Minglong%Guan%NULL%4, Xia%Deng%NULL%4, Xu%Chen%NULL%5, Leilei%Shen%NULL%4]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd on behalf of International Society for Infectious Diseases.</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%0, J.%Fang%NULL%1, Y.%Zhu%NULL%1, L.%Chen%NULL%1, F.%Ding%NULL%1, R.%Zhou%NULL%1, L.%Ge%NULL%1, F.%Wang%NULL%2, Q.%Chen%NULL%1, Y.%Zhang%NULL%2, Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Ltd on behalf of European Society of Clinical Microbiology and Infectious Diseases.</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0, Jun%Liu%NULL%0, Xinguo%Zhao%NULL%0, Chengyuan%Liu%NULL%0, Wei%Wang%NULL%0, Dawei%Wang%NULL%0, Wei%Xu%NULL%0, Chunyu%Zhang%NULL%0, Jiong%Yu%NULL%0, Bin%Jiang%NULL%0, Hongcui%Cao%hccao@zju.edu.cn%0, Lanjuan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%0, Jianming%Zhao%NULL%1, Ningfang%Lian%1533532863@qq.com%1, Su%Lin%NULL%6, Su%Lin%NULL%0, Qunfang%Xie%NULL%2, Qunfang%Xie%NULL%0, Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0, Chengcheng%Yu%NULL%0, Jing%Qu%NULL%0, Lieguang%Zhang%NULL%0, Songfeng%Jiang%NULL%0, Deyang%Huang%NULL%0, Bihua%Chen%NULL%0, Zhiping%Zhang%NULL%0, Wanhua%Guan%NULL%0, Zhoukun%Ling%NULL%0, Rui%Jiang%NULL%0, Tianli%Hu%NULL%0, Yan%Ding%NULL%0, Lin%Lin%NULL%0, Qingxin%Gan%NULL%0, Liangping%Luo%tluolp@jnu.edu.cn%0, Xiaoping%Tang%xtang@21cn.com%0, Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0, Qiqi%Cao%NULL%0, Le%Qin%NULL%0, Xiaoyang%Wang%NULL%0, Zenghui%Cheng%NULL%0, Ashan%Pan%NULL%0, Jianyi%Dai%NULL%0, Qingfeng%Sun%NULL%0, Fengquan%Zhao%NULL%0, Jieming%Qu%NULL%0, Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>The objective of this study is to compare the epidemiological variations in COVID-19 patients reported in studies from inside and outside of China.
+ We selected COVID-19 observational studies from eight countries, including, China, Italy, Australia, Canada, Korea, Taiwan, Singapore, and the USA, comprising a total of 13 studies and performed a meta-analysis for age, gender, fatality rate, and clinical symptoms of fever, cough, shortness of breath, and diarrhea.
+ The meta-analysis shows that there are differences in symptoms and other characteristics reported by the patients of COVID-19 inside and outside China.
+ Patients in China have a higher proportion of fever, cough, and shortness of breath as compared to patients outside of China.
+ However, we found the opposite results for the gastrointestinal symptoms such as Diarrhea.
+ Patients outside of China have a significantly higher proportion of Diarrhea as compared to patients within China.
+ We also observed gender disparity among our studies, with the male population being more susceptible than the female population.
+ Moreover, the analysis suggests that the fatality rate in China is relatively lower as compared to the fatality rate in other countries.
+ These findings also suggest that the clinical symptoms of COVID-19 should not be generalized to fever, shortness of breath, and cough only but other symptoms such as diarrhea are also prevalent in patients with COVID-19.</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%0, Areeba%Ali%NULL%1, Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%0, Jaime A.%Cardona-Ospina%NULL%3, Estefanía%Gutiérrez-Ocampo%NULL%1, Rhuvi%Villamizar-Peña%NULL%1, Yeimer%Holguin-Rivera%NULL%1, Juan Pablo%Escalera-Antezana%NULL%1, Lucia Elena%Alvarado-Arnez%NULL%1, D. Katterine%Bonilla-Aldana%NULL%3, Carlos%Franco-Paredes%NULL%1, Andrés F.%Henao-Martinez%NULL%1, Alberto%Paniz-Mondolfi%NULL%1, Guillermo J.%Lagos-Grisales%NULL%1, Eduardo%Ramírez-Vallejo%NULL%1, Jose A.%Suárez%NULL%1, Lysien I.%Zambrano%NULL%0, Wilmer E.%Villamil-Gómez%NULL%1, Graciela J.%Balbin-Ramon%NULL%1, Ali A.%Rabaan%NULL%1, Harapan%Harapan%NULL%1, Kuldeep%Dhama%NULL%1, Hiroshi%Nishiura%NULL%2, Hiromitsu%Kataoka%NULL%1, Tauseef%Ahmad%NULL%1, Ranjit%Sah%NULL%2, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%0, Ben%Van Calster%NULL%2, Ben%Van Calster%NULL%0, Gary S%Collins%NULL%2, Gary S%Collins%NULL%0, Richard D%Riley%NULL%2, Richard D%Riley%NULL%0, Georg%Heinze%NULL%1, Ewoud%Schuit%NULL%2, Ewoud%Schuit%NULL%0, Marc M J%Bonten%NULL%2, Marc M J%Bonten%NULL%0, Johanna A A%Damen%NULL%2, Johanna A A%Damen%NULL%0, Thomas P A%Debray%NULL%2, Thomas P A%Debray%NULL%0, Maarten%De Vos%NULL%2, Maarten%De Vos%NULL%0, Paula%Dhiman%NULL%2, Paula%Dhiman%NULL%0, Maria C%Haller%NULL%2, Maria C%Haller%NULL%0, Michael O%Harhay%NULL%2, Michael O%Harhay%NULL%0, Liesbet%Henckaerts%NULL%2, Liesbet%Henckaerts%NULL%0, Nina%Kreuzberger%NULL%2, Nina%Kreuzberger%NULL%0, Anna%Lohmann%NULL%2, Anna%Lohmann%NULL%0, Kim%Luijken%NULL%2, Kim%Luijken%NULL%0, Jie%Ma%NULL%2, Jie%Ma%NULL%0, Constanza L%Andaur Navarro%NULL%2, Constanza L%Andaur Navarro%NULL%0, Johannes B%Reitsma%NULL%2, Johannes B%Reitsma%NULL%0, Jamie C%Sergeant%NULL%1, Chunhu%Shi%NULL%2, Chunhu%Shi%NULL%0, Nicole%Skoetz%NULL%2, Nicole%Skoetz%NULL%0, Luc J M%Smits%NULL%2, Luc J M%Smits%NULL%0, Kym I E%Snell%NULL%2, Kym I E%Snell%NULL%0, Matthew%Sperrin%NULL%2, Matthew%Sperrin%NULL%0, René%Spijker%NULL%2, René%Spijker%NULL%0, Ewout W%Steyerberg%NULL%1, Toshihiko%Takada%NULL%2, Toshihiko%Takada%NULL%0, Sander M J%van Kuijk%NULL%2, Sander M J%van Kuijk%NULL%0, Florien S%van Royen%NULL%1, Christine%Wallisch%NULL%2, Christine%Wallisch%NULL%0, Lotty%Hooft%NULL%2, Lotty%Hooft%NULL%0, Karel G M%Moons%NULL%2, Karel G M%Moons%NULL%0, Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%0, Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0, Satoshi%Kutsuna%sonare.since1192@gmail.com%1, Kayoko%Hayakawa%kayokohayakawa@gmail.com%1, Norio%Ohmagari%lukenorioom@gmail.com%2]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%0, Jung Wan%Park%NULL%3, Moran%Ki%NULL%0, Mi-Yeon%Yeon%NULL%3, Jin%Kim%NULL%1, Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%0, Soyoung%Jung%syjung@kiom.re.kr%2, Soyoung%Jung%syjung@kiom.re.kr%0, Aeran%Kim%arkim@kiom.re.kr%1, Ji-Eun%Park%jepark@kiom.re.kr%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Severe acute respiratory syndrome (SARS) has been reported in 30 countries and regions, with a cumulative total of 8,099 probable cases and 774 deaths as of July 31, 2003, according to the World Health Organization.
+ In Hong Kong, People’s Republic of China, 1,755 SARS cases and 299 deaths had occurred as of September 22, 2003. The authors analyzed data from the Department of Health, Hong Kong SAR.
+ The data series includes details regarding sex, age, and chronic disease history.
+ Using data from early March to September 22, 2003, the authors found that males had a significantly (p &amp;lt; 0.0001) higher case fatality rate than females did, 21.9% versus 13.2%; the relative risk was 1.66 (95% confidence interval (CI): 1.35, 2.05), and it was 1.62 (95% CI: 1.21, 2.16) after adjustment for age.
+ Subgroup analysis was conducted by excluding health care workers (n = 386) from the analysis.
+ The overall crude relative risk of mortality was 1.41 (95% CI: 1.15, 1.74), and the adjusted relative risk was 1.48 (95% CI: 1.10, 2.00).
+ Thus, among SARS patients, males may be more severely affected by the disease than females are.
+ This finding could be related to a nonuniform case definition of SARS disease, a different treatment regimen, a past smoking history, work-environment factors, or gender-specific immune-defense factors, for instance.
+</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%0, D. S. Y.%Chong%NULL%1, W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%0, Vera%Regitz-Zagrosek%NULL%2, Vera%Regitz-Zagrosek%NULL%0, Hannelore K.%Neuhauser%NULL%1, Rosemary%Morgan%NULL%1, Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -5528,7 +5934,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>1315</v>
+        <v>1412</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -5540,10 +5946,10 @@
         <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>1022</v>
+        <v>444</v>
       </c>
       <c r="J2" t="s">
-        <v>444</v>
+        <v>1413</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -5576,7 +5982,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>1316</v>
+        <v>1414</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -5588,10 +5994,10 @@
         <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J3" t="s">
-        <v>444</v>
+        <v>1415</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -5624,7 +6030,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>1317</v>
+        <v>1416</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -5636,10 +6042,10 @@
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J4" t="s">
-        <v>444</v>
+        <v>1417</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -5669,10 +6075,10 @@
         <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>1418</v>
       </c>
       <c r="E5" t="s">
-        <v>1318</v>
+        <v>1419</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -5684,10 +6090,10 @@
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>1022</v>
+        <v>444</v>
       </c>
       <c r="J5" t="s">
-        <v>444</v>
+        <v>1420</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -5720,7 +6126,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>1319</v>
+        <v>1421</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -5732,10 +6138,10 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>1022</v>
+        <v>444</v>
       </c>
       <c r="J6" t="s">
-        <v>444</v>
+        <v>1422</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -5768,7 +6174,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>1320</v>
+        <v>1423</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -5780,10 +6186,10 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J7" t="s">
-        <v>444</v>
+        <v>1417</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -5816,7 +6222,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>1321</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -5828,10 +6234,10 @@
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J8" t="s">
-        <v>444</v>
+        <v>1424</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -5861,10 +6267,10 @@
         <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>1425</v>
       </c>
       <c r="E9" t="s">
-        <v>1322</v>
+        <v>1426</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -5876,10 +6282,10 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J9" t="s">
-        <v>444</v>
+        <v>1427</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -5912,7 +6318,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>1323</v>
+        <v>1428</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -5924,10 +6330,10 @@
         <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J10" t="s">
-        <v>444</v>
+        <v>1429</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -5957,10 +6363,10 @@
         <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>1430</v>
       </c>
       <c r="E11" t="s">
-        <v>1324</v>
+        <v>1431</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -5972,10 +6378,10 @@
         <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J11" t="s">
-        <v>444</v>
+        <v>1432</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -6005,10 +6411,10 @@
         <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>1433</v>
       </c>
       <c r="E12" t="s">
-        <v>1325</v>
+        <v>1434</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -6020,10 +6426,10 @@
         <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J12" t="s">
-        <v>444</v>
+        <v>1432</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -6056,7 +6462,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>1326</v>
+        <v>1435</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -6068,10 +6474,10 @@
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J13" t="s">
-        <v>444</v>
+        <v>1415</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -6104,7 +6510,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>1327</v>
+        <v>245</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -6116,10 +6522,10 @@
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>1022</v>
+        <v>444</v>
       </c>
       <c r="J14" t="s">
-        <v>444</v>
+        <v>1422</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -6149,10 +6555,10 @@
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>1436</v>
       </c>
       <c r="E15" t="s">
-        <v>441</v>
+        <v>246</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -6164,10 +6570,10 @@
         <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J15" t="s">
-        <v>444</v>
+        <v>1437</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -6200,7 +6606,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>1328</v>
+        <v>1438</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -6212,10 +6618,10 @@
         <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>1022</v>
+        <v>444</v>
       </c>
       <c r="J16" t="s">
-        <v>444</v>
+        <v>1439</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -6248,7 +6654,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>1329</v>
+        <v>1440</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -6260,10 +6666,10 @@
         <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J17" t="s">
-        <v>444</v>
+        <v>1441</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -6290,28 +6696,28 @@
         <v>43931.0</v>
       </c>
       <c r="C18" t="s">
-        <v>619</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>850</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>621</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>1116</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
         <v>444</v>
       </c>
       <c r="J18" t="s">
-        <v>1117</v>
+        <v>444</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -6338,28 +6744,28 @@
         <v>43902.0</v>
       </c>
       <c r="C19" t="s">
-        <v>623</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>851</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>621</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>1118</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
         <v>444</v>
       </c>
       <c r="J19" t="s">
-        <v>1119</v>
+        <v>444</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -6392,7 +6798,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>1330</v>
+        <v>1442</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -6404,10 +6810,10 @@
         <v>128</v>
       </c>
       <c r="I20" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J20" t="s">
-        <v>444</v>
+        <v>1427</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -6437,10 +6843,10 @@
         <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>1443</v>
       </c>
       <c r="E21" t="s">
-        <v>1331</v>
+        <v>1444</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -6452,10 +6858,10 @@
         <v>133</v>
       </c>
       <c r="I21" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J21" t="s">
-        <v>444</v>
+        <v>1427</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -6482,25 +6888,25 @@
         <v>43868.0</v>
       </c>
       <c r="C22" t="s">
-        <v>479</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>1332</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>482</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>1039</v>
+        <v>444</v>
       </c>
       <c r="J22" t="s">
         <v>444</v>
@@ -6533,10 +6939,10 @@
         <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>1445</v>
       </c>
       <c r="E23" t="s">
-        <v>1333</v>
+        <v>1446</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -6548,10 +6954,10 @@
         <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>1022</v>
+        <v>444</v>
       </c>
       <c r="J23" t="s">
-        <v>444</v>
+        <v>1447</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -6584,7 +6990,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>1334</v>
+        <v>1448</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -6596,10 +7002,10 @@
         <v>142</v>
       </c>
       <c r="I24" t="s">
-        <v>1022</v>
+        <v>444</v>
       </c>
       <c r="J24" t="s">
-        <v>444</v>
+        <v>1449</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -6632,7 +7038,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>1335</v>
+        <v>1450</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -6644,10 +7050,10 @@
         <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J25" t="s">
-        <v>444</v>
+        <v>1417</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -6680,7 +7086,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>1336</v>
+        <v>1451</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -6692,10 +7098,10 @@
         <v>151</v>
       </c>
       <c r="I26" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J26" t="s">
-        <v>444</v>
+        <v>1427</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -6725,10 +7131,10 @@
         <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>782</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>1337</v>
+        <v>1452</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -6740,10 +7146,10 @@
         <v>156</v>
       </c>
       <c r="I27" t="s">
-        <v>1049</v>
+        <v>444</v>
       </c>
       <c r="J27" t="s">
-        <v>444</v>
+        <v>1453</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -6776,7 +7182,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>1338</v>
+        <v>1454</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -6788,10 +7194,10 @@
         <v>161</v>
       </c>
       <c r="I28" t="s">
-        <v>1022</v>
+        <v>444</v>
       </c>
       <c r="J28" t="s">
-        <v>444</v>
+        <v>1420</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -6818,28 +7224,28 @@
         <v>43893.0</v>
       </c>
       <c r="C29" t="s">
-        <v>635</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>1339</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>621</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>1116</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
         <v>444</v>
       </c>
       <c r="J29" t="s">
-        <v>1117</v>
+        <v>444</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -6866,25 +7272,25 @@
         <v>43880.0</v>
       </c>
       <c r="C30" t="s">
-        <v>489</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>490</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>1340</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>482</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>1039</v>
+        <v>444</v>
       </c>
       <c r="J30" t="s">
         <v>444</v>
@@ -6914,25 +7320,25 @@
         <v>37397.0</v>
       </c>
       <c r="C31" t="s">
-        <v>492</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>1341</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>482</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>1039</v>
+        <v>444</v>
       </c>
       <c r="J31" t="s">
         <v>444</v>
@@ -6965,10 +7371,10 @@
         <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>1455</v>
       </c>
       <c r="E32" t="s">
-        <v>1342</v>
+        <v>1456</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -6980,10 +7386,10 @@
         <v>166</v>
       </c>
       <c r="I32" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J32" t="s">
-        <v>444</v>
+        <v>1457</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -7016,7 +7422,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>1343</v>
+        <v>1458</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -7028,10 +7434,10 @@
         <v>171</v>
       </c>
       <c r="I33" t="s">
-        <v>1022</v>
+        <v>444</v>
       </c>
       <c r="J33" t="s">
-        <v>444</v>
+        <v>1422</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -7064,7 +7470,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>1344</v>
+        <v>1459</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -7076,10 +7482,10 @@
         <v>176</v>
       </c>
       <c r="I34" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J34" t="s">
-        <v>444</v>
+        <v>1424</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -7112,7 +7518,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>1345</v>
+        <v>1460</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -7124,10 +7530,10 @@
         <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>1049</v>
+        <v>444</v>
       </c>
       <c r="J35" t="s">
-        <v>444</v>
+        <v>1461</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -7160,7 +7566,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>1346</v>
+        <v>1462</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -7172,10 +7578,10 @@
         <v>186</v>
       </c>
       <c r="I36" t="s">
-        <v>1022</v>
+        <v>444</v>
       </c>
       <c r="J36" t="s">
-        <v>444</v>
+        <v>1447</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -7205,10 +7611,10 @@
         <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>793</v>
+        <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>1347</v>
+        <v>1463</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -7220,10 +7626,10 @@
         <v>191</v>
       </c>
       <c r="I37" t="s">
-        <v>1049</v>
+        <v>444</v>
       </c>
       <c r="J37" t="s">
-        <v>444</v>
+        <v>1461</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -7253,10 +7659,10 @@
         <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>231</v>
+        <v>1464</v>
       </c>
       <c r="E38" t="s">
-        <v>1348</v>
+        <v>1465</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -7268,10 +7674,10 @@
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>1024</v>
+        <v>444</v>
       </c>
       <c r="J38" t="s">
-        <v>444</v>
+        <v>1417</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -7301,10 +7707,10 @@
         <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>796</v>
+        <v>232</v>
       </c>
       <c r="E39" t="s">
-        <v>1349</v>
+        <v>1466</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -7316,10 +7722,10 @@
         <v>200</v>
       </c>
       <c r="I39" t="s">
-        <v>1049</v>
+        <v>444</v>
       </c>
       <c r="J39" t="s">
-        <v>444</v>
+        <v>1461</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
